--- a/Microonde/dati_brewster_rifl.xlsx
+++ b/Microonde/dati_brewster_rifl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL\Stefano\Bicocca\secondo_anno\lab2\Laboratorio_2\Microonde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51FE07E-F4E6-407F-BDE1-F7340C64F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DACC19-4798-4F62-8DE5-2B954786EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>tensione</t>
+    <t>angolo(specchio)</t>
   </si>
   <si>
-    <t>angolo(specchio)</t>
+    <t>angolo(specchio)(giorno1)</t>
+  </si>
+  <si>
+    <t>tensione(giorno1)</t>
+  </si>
+  <si>
+    <t>tensione(polar. vert.)</t>
+  </si>
+  <si>
+    <t>tensione(polar. oriz.)</t>
   </si>
 </sst>
 </file>
@@ -348,180 +357,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0.35</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0.35</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
         <v>0.53</v>
       </c>
-      <c r="F2">
+      <c r="K2">
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>25</v>
       </c>
       <c r="B3">
-        <v>0.33</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3">
+        <v>0.99</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>0.33</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
       <c r="B4">
-        <v>0.52</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>0.52</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
         <v>0.5</v>
       </c>
-      <c r="F4">
+      <c r="K4">
         <v>0.44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>2.5</v>
+      </c>
       <c r="D5">
         <v>35</v>
       </c>
       <c r="E5">
+        <v>0.52</v>
+      </c>
+      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="J5">
         <v>0.08</v>
       </c>
-      <c r="F5">
+      <c r="K5">
         <v>0.53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>0.08</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6">
+        <v>0.12</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>0.08</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
         <v>0.16</v>
       </c>
-      <c r="F6">
+      <c r="K6">
         <v>0.18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>2.1</v>
+      </c>
       <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>0.64</v>
+      </c>
+      <c r="I7">
         <v>50</v>
       </c>
-      <c r="E7">
+      <c r="J7">
         <v>0.48</v>
       </c>
-      <c r="F7">
+      <c r="K7">
         <v>0.32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>1.7</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F8">
         <v>40</v>
       </c>
-      <c r="B8">
+      <c r="G8">
         <v>0.21</v>
       </c>
-      <c r="D8">
+      <c r="I8">
         <v>60</v>
       </c>
-      <c r="E8">
+      <c r="J8">
         <v>0.32</v>
       </c>
-      <c r="F8">
+      <c r="K8">
         <v>0.64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>0.93</v>
+      </c>
+      <c r="F9">
         <v>45</v>
       </c>
-      <c r="B9">
+      <c r="G9">
         <v>0.11</v>
       </c>
-      <c r="D9">
+      <c r="I9">
         <v>70</v>
       </c>
-      <c r="E9">
+      <c r="J9">
         <v>0.67</v>
       </c>
-      <c r="F9">
+      <c r="K9">
         <v>0.65</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="B10">
+      <c r="G10">
         <v>0.5</v>
       </c>
-      <c r="D10">
+      <c r="I10">
         <v>75</v>
       </c>
-      <c r="E10">
+      <c r="J10">
         <v>0.62</v>
       </c>
-      <c r="F10">
+      <c r="K10">
         <v>0.65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>1.03</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>0.89</v>
+      </c>
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="B11">
+      <c r="G11">
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>0.6</v>
+      </c>
+      <c r="D12">
+        <v>70</v>
+      </c>
+      <c r="E12">
+        <v>0.69</v>
+      </c>
+      <c r="F12">
         <v>60</v>
       </c>
-      <c r="B12">
+      <c r="G12">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>75</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Microonde/dati_brewster_rifl.xlsx
+++ b/Microonde/dati_brewster_rifl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ALL\Stefano\Bicocca\secondo_anno\lab2\Laboratorio_2\Microonde\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DACC19-4798-4F62-8DE5-2B954786EE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3B0E90-0D3B-41CD-9585-7E532C56CDDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +489,12 @@
       <c r="E5">
         <v>0.52</v>
       </c>
+      <c r="F5">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>0.08</v>
+      </c>
       <c r="I5">
         <v>35</v>
       </c>
@@ -513,10 +519,10 @@
         <v>0.12</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="I6">
         <v>40</v>
@@ -541,6 +547,12 @@
       <c r="E7">
         <v>0.64</v>
       </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>0.11</v>
+      </c>
       <c r="I7">
         <v>50</v>
       </c>
@@ -565,10 +577,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>0.21</v>
+        <v>0.5</v>
       </c>
       <c r="I8">
         <v>60</v>
@@ -594,10 +606,10 @@
         <v>0.93</v>
       </c>
       <c r="F9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G9">
-        <v>0.11</v>
+        <v>0.65</v>
       </c>
       <c r="I9">
         <v>70</v>
@@ -623,10 +635,10 @@
         <v>0.7</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G10">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="I10">
         <v>75</v>
@@ -651,12 +663,6 @@
       <c r="E11">
         <v>0.89</v>
       </c>
-      <c r="F11">
-        <v>55</v>
-      </c>
-      <c r="G11">
-        <v>0.65</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -670,12 +676,6 @@
       </c>
       <c r="E12">
         <v>0.69</v>
-      </c>
-      <c r="F12">
-        <v>60</v>
-      </c>
-      <c r="G12">
-        <v>0.87</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
